--- a/public/autos/catalogo.xlsx
+++ b/public/autos/catalogo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cate/Desktop/Tlovendo/public/autos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E736A1C6-E2C0-624B-8F31-03D0FA86FDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D11CE7-A7FF-494E-8D97-6C451B06669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="194">
   <si>
     <t>Motor y rendimiento</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>6990000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nissan </t>
   </si>
   <si>
     <t>Frontal</t>
@@ -2159,20 +2162,36 @@
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2003</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <v>240000</v>
+      </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7">
+        <v>10500000</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="O19" s="8">
+        <v>45780</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -35669,19 +35688,19 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -35717,19 +35736,19 @@
         <v>2024</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -35765,19 +35784,19 @@
         <v>2024</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="1"/>
@@ -35814,19 +35833,19 @@
         <v>2022</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
@@ -35863,19 +35882,19 @@
         <v>2018</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="1"/>
@@ -35912,19 +35931,19 @@
         <v>2016</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="1"/>
@@ -35961,19 +35980,19 @@
         <v>2013</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="1"/>
@@ -36010,19 +36029,19 @@
         <v>2018</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="1"/>
@@ -36059,19 +36078,19 @@
         <v>2018</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
@@ -36108,19 +36127,19 @@
         <v>2016</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="1"/>
@@ -36157,19 +36176,19 @@
         <v>2020</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="1"/>
@@ -36206,19 +36225,19 @@
         <v>2022</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -63953,17 +63972,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F2" s="19" t="str">
         <f t="shared" ref="F2:F16" si="1">CONCATENATE(B2,"_",C2,D2)</f>
         <v>9_frontal.jpg</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -63975,17 +63994,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F3" s="19" t="str">
         <f t="shared" si="1"/>
         <v>9_lateral.jpg</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -63997,17 +64016,17 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F4" s="19" t="str">
         <f t="shared" si="1"/>
         <v>9_posterior.jpg</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64019,17 +64038,17 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>9_tablero.jpg</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64041,17 +64060,17 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>9_asientos.jpg</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64063,17 +64082,17 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F7" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_frontal.jpg</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64085,17 +64104,17 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_lateral.jpg</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64107,17 +64126,17 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_posterior.jpg</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64129,17 +64148,17 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F10" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_tablero.jpg</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64151,17 +64170,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F11" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_asientos.jpg</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64173,17 +64192,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F12" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_frontal.jpg</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64195,17 +64214,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F13" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_lateral.jpg</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64217,17 +64236,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_posterior.jpg</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64239,17 +64258,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F15" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_tablero.jpg</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64261,17 +64280,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F16" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_asientos.jpg</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/public/autos/catalogo.xlsx
+++ b/public/autos/catalogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cate/Desktop/Tlovendo/public/autos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D11CE7-A7FF-494E-8D97-6C451B06669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB495F02-61B3-C54D-9EAD-CF8F1E7DB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="196">
   <si>
     <t>Motor y rendimiento</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t xml:space="preserve">Nissan </t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Sentra</t>
   </si>
   <si>
     <t>Frontal</t>
@@ -1008,7 +1014,9 @@
   </sheetPr>
   <dimension ref="A1:AF1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1370,42 +1378,42 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="10">
         <v>2018</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="11">
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="14">
         <v>173000</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>43</v>
+      <c r="N6" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="5"/>
@@ -1814,42 +1822,42 @@
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="10">
         <v>2022</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="11">
         <v>2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="14">
         <v>43000</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>43</v>
+      <c r="N13" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1920,38 +1928,38 @@
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="10">
         <v>2011</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="14">
         <v>109000</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="13">
         <v>4490000</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>43</v>
+      <c r="N15" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="O15" s="8">
         <v>45809</v>
@@ -2188,7 +2196,9 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="O19" s="8">
         <v>45780</v>
       </c>
@@ -2212,10 +2222,18 @@
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2019</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2224,7 +2242,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -2246,10 +2266,18 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2021</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2258,7 +2286,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -2280,9 +2310,15 @@
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2292,7 +2328,9 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -2314,10 +2352,18 @@
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1999</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2326,7 +2372,9 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -35688,19 +35736,19 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -35736,19 +35784,19 @@
         <v>2024</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -35784,19 +35832,19 @@
         <v>2024</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="1"/>
@@ -35833,19 +35881,19 @@
         <v>2022</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
@@ -35882,19 +35930,19 @@
         <v>2018</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="1"/>
@@ -35931,19 +35979,19 @@
         <v>2016</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="1"/>
@@ -35980,19 +36028,19 @@
         <v>2013</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="1"/>
@@ -36029,19 +36077,19 @@
         <v>2018</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="1"/>
@@ -36078,19 +36126,19 @@
         <v>2018</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
@@ -36127,19 +36175,19 @@
         <v>2016</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="1"/>
@@ -36176,19 +36224,19 @@
         <v>2020</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="1"/>
@@ -36225,19 +36273,19 @@
         <v>2022</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -63972,17 +64020,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F2" s="19" t="str">
         <f t="shared" ref="F2:F16" si="1">CONCATENATE(B2,"_",C2,D2)</f>
         <v>9_frontal.jpg</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -63994,17 +64042,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F3" s="19" t="str">
         <f t="shared" si="1"/>
         <v>9_lateral.jpg</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64016,17 +64064,17 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="19" t="str">
         <f t="shared" si="1"/>
         <v>9_posterior.jpg</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64038,17 +64086,17 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>9_tablero.jpg</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64060,17 +64108,17 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>9_asientos.jpg</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64082,17 +64130,17 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_frontal.jpg</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64104,17 +64152,17 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F8" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_lateral.jpg</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64126,17 +64174,17 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F9" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_posterior.jpg</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64148,17 +64196,17 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_tablero.jpg</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64170,17 +64218,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F11" s="19" t="str">
         <f t="shared" si="1"/>
         <v>10_asientos.jpg</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64192,17 +64240,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F12" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_frontal.jpg</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64214,17 +64262,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F13" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_lateral.jpg</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64236,17 +64284,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F14" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_posterior.jpg</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64258,17 +64306,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F15" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_tablero.jpg</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -64280,17 +64328,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F16" s="19" t="str">
         <f t="shared" si="1"/>
         <v>11_asientos.jpg</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
